--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.2384627111384</v>
+        <v>68304.45407951632</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.2384627111384</v>
+        <v>68304.45407951632</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79691.26439200884</v>
+        <v>5359332.006851781</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79691.26439200884</v>
+        <v>5359332.006851781</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342328316.733196</v>
+        <v>49831379.73073</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14528.36295506456</v>
+        <v>1220379.745988262</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27679.42283547285</v>
+        <v>2202930.896156288</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40845.60756095837</v>
+        <v>3185482.046324315</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54276.30291904563</v>
+        <v>4167048.403381235</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67706.99827713285</v>
+        <v>5148614.760438155</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81137.69363522012</v>
+        <v>6130181.117495076</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94568.36052544341</v>
+        <v>7111747.474551991</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107999.0558835307</v>
+        <v>8093313.831608905</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121620.1794803613</v>
+        <v>9032232.295417879</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>135102.3550896157</v>
+        <v>10021080.3972216</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>148543.5092847286</v>
+        <v>11001765.23761119</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161984.6634798416</v>
+        <v>11982450.07800077</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>175425.8176749545</v>
+        <v>12963134.91839037</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188866.9718700674</v>
+        <v>13943819.75877997</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>202632.691216529</v>
+        <v>14891186.13890784</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>153</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
